--- a/docs/license.xlsx
+++ b/docs/license.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Github\license\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234280B4-0592-4240-A6B7-65BCF0169A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29169079-F0D0-4EBD-909D-8668C599C7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="开源 License 比对" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="102">
   <si>
     <t>Eclipse Public License 2.0</t>
   </si>
@@ -342,16 +342,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不承担</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不保证
-可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -481,6 +472,10 @@
   </si>
   <si>
     <t>一个没有任何条件的许可证，将作品奉献给公共领域。未经许可的作品、修改和更大的作品可以在不同的条款下分发，无需源代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证满足期望</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +678,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,7 +687,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -978,7 +973,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" sqref="A1:A4"/>
@@ -1010,35 +1005,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="F1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
@@ -1049,28 +1044,28 @@
       <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="18" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>48</v>
@@ -1082,34 +1077,34 @@
         <v>12</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
@@ -1128,12 +1123,12 @@
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+    <row r="4" spans="1:21" ht="27" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>49</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>51</v>
@@ -1177,10 +1172,10 @@
         <v>56</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1197,7 +1192,7 @@
         <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>58</v>
@@ -1218,10 +1213,10 @@
         <v>59</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>60</v>
@@ -1262,7 +1257,7 @@
         <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>58</v>
@@ -1283,10 +1278,10 @@
         <v>61</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="N6" s="14" t="s">
         <v>60</v>
@@ -1327,7 +1322,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>58</v>
@@ -1348,10 +1343,10 @@
         <v>61</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>60</v>
@@ -1392,7 +1387,7 @@
         <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>58</v>
@@ -1413,10 +1408,10 @@
         <v>61</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>60</v>
@@ -1457,7 +1452,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>58</v>
@@ -1478,10 +1473,10 @@
         <v>61</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>60</v>
@@ -1522,7 +1517,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>58</v>
@@ -1543,10 +1538,10 @@
         <v>61</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>60</v>
@@ -1587,7 +1582,7 @@
         <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>58</v>
@@ -1608,10 +1603,10 @@
         <v>61</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>60</v>
@@ -1652,7 +1647,7 @@
         <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>58</v>
@@ -1673,10 +1668,10 @@
         <v>61</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>60</v>
@@ -1717,7 +1712,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>58</v>
@@ -1738,10 +1733,10 @@
         <v>61</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>60</v>
@@ -1782,7 +1777,7 @@
         <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>58</v>
@@ -1803,10 +1798,10 @@
         <v>59</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>61</v>
@@ -1847,7 +1842,7 @@
         <v>72</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>58</v>
@@ -1868,10 +1863,10 @@
         <v>61</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>60</v>
@@ -1912,7 +1907,7 @@
         <v>73</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>58</v>
@@ -1933,10 +1928,10 @@
         <v>59</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>60</v>
@@ -1977,7 +1972,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>57</v>
@@ -1998,10 +1993,10 @@
         <v>61</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>61</v>
@@ -2030,6 +2025,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:U1"/>
@@ -2046,12 +2047,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/license.xlsx
+++ b/docs/license.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Github\license\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29169079-F0D0-4EBD-909D-8668C599C7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F571933A-4F05-4589-B022-DFB4AE633A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Modification</t>
   </si>
   <si>
-    <t>Distribution</t>
-  </si>
-  <si>
     <t>Patent use</t>
   </si>
   <si>
@@ -187,10 +184,6 @@
   </si>
   <si>
     <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -476,6 +469,14 @@
   </si>
   <si>
     <t>保证满足期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布/分发/传播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,16 +679,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,372 +1006,372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="15" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>78</v>
+      <c r="Q2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" ht="27" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="T4" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="L5" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,64 +1379,64 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,64 +1444,64 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,324 +1509,324 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1833,64 +1834,64 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1898,133 +1899,139 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="L16" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="M17" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -2041,12 +2048,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/license.xlsx
+++ b/docs/license.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/exp/workspace/github/license/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC75AB1-6CF2-7C42-A6A7-77D9D9DDD42E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F842C80-CB6A-7D40-AB28-50F5D8213D50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,7 +982,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
